--- a/biology/Histoire de la zoologie et de la botanique/Jules_Gravereaux/Jules_Gravereaux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Gravereaux/Jules_Gravereaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Gravereaux (1er mai 1844 à Vitry-sur-Seine — 23 mars 1916 à Paris) est un rhodologue français, qui a notamment créé la première roseraie moderne, la roseraie du Val-de-Marne. Il est le grand-oncle et parrain de l'illustrateur Jacques Touchet.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Gravereaux est né le 1er mai 1844 à Vitry-sur-Seine, de Jean Narcisse Gravereaux, menuisier, et de Marie Henriette Gervais.
 En mars 1856, il entre en apprentissage chez un bonnetier de la rue du Bac. Il est employé deux ans plus tard dans une mercerie, chez Aristide Boucicaut et sa femme. En 1852, M. et Mme Boucicaut achètent les terrains vagues situés en face de leur mercerie et y font construire Le Bon Marché.
@@ -554,7 +568,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1902)
  Officier de la Légion d'honneur (1910)
@@ -586,7 +602,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Collection botanique du genre Rosa (1899).
 Catalogue des roses cultivées à L'Haÿ (1900).
@@ -624,7 +642,9 @@
           <t>Quelques obtentions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>'La France Victorieuse', hybride de thé
 'Rhodologue Jules Gravereaux'
